--- a/Excel/Localization/LocalizationText.xlsx
+++ b/Excel/Localization/LocalizationText.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F9FCE-7F7F-453E-8FB6-08A4AF340BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -69,13 +68,29 @@
   </si>
   <si>
     <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认文本 对应语言获取不到时读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,36 +431,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -454,13 +472,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -469,33 +490,39 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/Localization/LocalizationText.xlsx
+++ b/Excel/Localization/LocalizationText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,6 +534,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
